--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>STT</t>
   </si>
@@ -111,6 +111,21 @@
   </si>
   <si>
     <t>About us</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -257,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -294,6 +309,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -301,19 +322,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -386,6 +394,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -393,18 +410,22 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -421,13 +442,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D14" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D14" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A1:D14"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="4"/>
-    <tableColumn id="2" name="Column2" dataDxfId="3"/>
-    <tableColumn id="4" name="Column4" dataDxfId="2"/>
-    <tableColumn id="5" name="Column5" dataDxfId="1"/>
+    <tableColumn id="1" name="Column1" dataDxfId="3"/>
+    <tableColumn id="2" name="Column2" dataDxfId="2"/>
+    <tableColumn id="4" name="Column4" dataDxfId="1"/>
+    <tableColumn id="5" name="Column5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -696,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,6 +933,48 @@
       </c>
       <c r="D14" s="13"/>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
